--- a/data/trans_bre/P24_4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_4_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,93</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>124,08%</t>
+          <t>9,35</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>171,01%</t>
+          <t>160,91%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>139,13%</t>
+          <t>161,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>256,55%</t>
+          <t>128,76%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>165,81%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>184,6%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 5,5</t>
+          <t>-0,46; 6,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 7,44</t>
+          <t>-0,15; 8,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 7,78</t>
+          <t>-0,57; 8,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,66; 9,79</t>
+          <t>0,82; 11,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-28,11; 573,28</t>
+          <t>3,16; 15,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,79; 573,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,77; 542,9</t>
+          <t>-14,74; 659,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>54,53; 801,49</t>
+          <t>-28,53; 631,45</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-1,35; 785,88</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>32,61; 616,78</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>137,24%</t>
+          <t>9,72</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>201,5%</t>
+          <t>285,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-2,21%</t>
+          <t>74,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>66,15%</t>
+          <t>1,96%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>31,44%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>131,67%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 6,01</t>
+          <t>0,53; 9,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 9,38</t>
+          <t>-2,07; 7,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 4,23</t>
+          <t>-10,02; 7,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 9,2</t>
+          <t>-3,39; 6,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,1; 975,97</t>
+          <t>1,91; 18,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 833,26</t>
+          <t>-31,08; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-59,37; 111,24</t>
+          <t>-54,41; 614,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,66; 304,24</t>
+          <t>-61,54; 114,13</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-51,81; 247,13</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>10,5; 421,55</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>-5,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>175,04%</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>279,86%</t>
+          <t>-25,48%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>147,12%</t>
+          <t>133,8%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>43,45%</t>
         </is>
       </c>
     </row>
@@ -868,40 +934,50 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 12,18</t>
+          <t>0,0; 15,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 6,76</t>
+          <t>-13,52; 5,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 17,82</t>
+          <t>-5,04; 14,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 10,39</t>
+          <t>-18,98; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-9,17; 14,98</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-52,38; —</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>133,88%</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>159,4%</t>
+          <t>252,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>61,32%</t>
+          <t>100,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>137,48%</t>
+          <t>37,76%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>68,06%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>145,64%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 4,71</t>
+          <t>1,63; 6,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 6,57</t>
+          <t>-0,05; 6,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 5,3</t>
+          <t>-2,16; 6,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 7,75</t>
+          <t>-0,66; 6,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,42; 408,54</t>
+          <t>4,06; 13,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,74; 376,36</t>
+          <t>36,14; 1209,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 173,12</t>
+          <t>-14,82; 307,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,36; 330,67</t>
+          <t>-29,74; 165,22</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-14,84; 229,26</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>44,46; 320,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P24_4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_4_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,229 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,89</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,29</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,01</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>5,54</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>9,35</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>160,91%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>161,5%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>128,76%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>165,81%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>184,6%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.889141927680334</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.10043219074475</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4.076966589229643</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>6.13259682497858</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>9.573464707257292</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.609051202465649</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.634348744664312</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.366199858537112</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.875056014971995</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>1.844877666995815</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,46; 6,53</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,15; 8,25</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,57; 8,49</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 11,08</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>3,16; 15,9</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-14,74; 659,67</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-28,53; 631,45</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-1,35; 785,88</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>32,61; 616,78</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.45614924285527</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.1774334756710884</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.3901120914269812</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1.13976859682796</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>3.104208152635159</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.1092618808462784</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2582286091388767</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.07618340629908438</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.2871479645702021</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.534035147521286</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.823791611408527</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.517532058952074</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>12.19093253969638</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>16.11401738829114</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>6.700371013622016</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>6.653232560511584</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>8.416015126483243</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>5.961724532858091</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,84</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,43</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>9,72</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>285,96%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>74,06%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>1,96%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>31,44%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>131,67%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 9,54</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,07; 7,89</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-10,02; 7,24</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,39; 6,02</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1,91; 18,09</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-31,08; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-54,41; 614,34</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-61,54; 114,13</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-51,81; 247,13</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>10,5; 421,55</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>4.835655842713721</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.340083275735799</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.08658831465840622</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.387245396116977</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>10.8223518093637</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>2.859560263575502</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.8344298818546231</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.008499086806689897</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.3268443564818456</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>1.62088048752211</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>5,21</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,87</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,27</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-5,34</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,4</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-25,48%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>133,8%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>43,45%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.5260375740157636</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.697477956996094</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-9.894003278133155</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.234886363164872</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>3.355268099370996</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.3107527938500613</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5151769988211121</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.6395175682022026</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.5249935403240289</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.2240197977339755</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 15,63</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-13,52; 5,17</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,04; 14,76</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-18,98; 0,0</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-9,17; 14,98</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.541025447533885</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.468510821453496</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.107729827373897</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.818823905876898</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>19.45659149910516</v>
+      </c>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>6.327434590941917</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.166910016396457</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>2.651448338071172</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>4.69198099929772</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +873,215 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,93</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,98</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,3</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,76</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>8,78</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>252,97%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>100,96%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>37,76%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>68,06%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>145,64%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>5.205411195527551</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.4706825099484929</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.423371487204015</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-4.824188832511692</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>1.907705507469875</v>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.1592856375837814</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.544899113253833</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.3154912940855728</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>1,63; 6,95</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,05; 6,14</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,16; 6,26</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,66; 6,23</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>4,06; 13,63</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>36,14; 1209,25</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-14,82; 307,98</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-29,74; 165,22</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-14,84; 229,26</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>44,46; 320,0</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.55287017587081</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.710599391408995</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-17.4140307012887</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-10.79521813215911</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>15.63213093745667</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.186455187448289</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>15.56175505892116</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>14.30714630094989</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>3.925415428219407</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.93057838472444</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.21156361311743</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.034810898820389</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>9.241299088801432</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>2.529698137060781</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1.094204789226338</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.3693611604451996</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.7884604940563668</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>1.57091606216093</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.626538203674875</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.1362387072121224</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.23368126374138</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.4406085512602781</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>4.552209787509135</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.3613689172345404</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.08442232934188214</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3169339967469931</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1128297023573985</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.5546169205247091</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.951180682313771</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.918891944097502</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>6.120758356487439</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.470194381470877</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>14.23076117777547</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>12.09247854164212</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>3.224427445159144</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.604150505151828</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>2.54687993323619</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>3.413648312965762</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1089,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
